--- a/Planung/Meilensteine.xlsx
+++ b/Planung/Meilensteine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Planung</t>
   </si>
@@ -93,13 +93,25 @@
   </si>
   <si>
     <t>Projektabschluss</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>Nähere Beschreibung</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +119,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -124,15 +167,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,124 +552,170 @@
     <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
         <v>42282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
         <v>42283</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
         <v>42297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>42299</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="2">
+        <v>42307</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D8" s="2">
+        <v>42311</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="2">
+        <v>42315</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="2">
+        <v>42317</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
         <v>42317</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
         <v>42323</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
         <v>42323</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
         <v>42324</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>